--- a/result/АЛЬПАКА.xlsx
+++ b/result/АЛЬПАКА.xlsx
@@ -3207,7 +3207,7 @@
         <v>613</v>
       </c>
       <c r="D2">
-        <v>716</v>
+        <v>911</v>
       </c>
       <c r="F2" t="s">
         <v>931</v>
@@ -3227,7 +3227,7 @@
         <v>613</v>
       </c>
       <c r="D3">
-        <v>716</v>
+        <v>911</v>
       </c>
       <c r="F3" t="s">
         <v>931</v>
@@ -3247,7 +3247,7 @@
         <v>613</v>
       </c>
       <c r="D4">
-        <v>716</v>
+        <v>911</v>
       </c>
       <c r="F4" t="s">
         <v>931</v>
@@ -3267,7 +3267,7 @@
         <v>613</v>
       </c>
       <c r="D5">
-        <v>716</v>
+        <v>911</v>
       </c>
       <c r="F5" t="s">
         <v>931</v>
@@ -3287,7 +3287,7 @@
         <v>614</v>
       </c>
       <c r="D6">
-        <v>685</v>
+        <v>514</v>
       </c>
       <c r="F6" t="s">
         <v>931</v>
@@ -3307,7 +3307,7 @@
         <v>614</v>
       </c>
       <c r="D7">
-        <v>685</v>
+        <v>514</v>
       </c>
       <c r="F7" t="s">
         <v>931</v>
@@ -3327,7 +3327,7 @@
         <v>614</v>
       </c>
       <c r="D8">
-        <v>685</v>
+        <v>514</v>
       </c>
       <c r="F8" t="s">
         <v>931</v>
@@ -3347,7 +3347,7 @@
         <v>614</v>
       </c>
       <c r="D9">
-        <v>685</v>
+        <v>514</v>
       </c>
       <c r="F9" t="s">
         <v>931</v>
@@ -3367,7 +3367,7 @@
         <v>615</v>
       </c>
       <c r="D10">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="F10" t="s">
         <v>931</v>
@@ -3387,7 +3387,7 @@
         <v>615</v>
       </c>
       <c r="D11">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="F11" t="s">
         <v>931</v>
@@ -3407,7 +3407,7 @@
         <v>615</v>
       </c>
       <c r="D12">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="F12" t="s">
         <v>931</v>
@@ -3427,7 +3427,7 @@
         <v>615</v>
       </c>
       <c r="D13">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="F13" t="s">
         <v>931</v>
@@ -3447,7 +3447,7 @@
         <v>616</v>
       </c>
       <c r="D14">
-        <v>820</v>
+        <v>619</v>
       </c>
       <c r="F14" t="s">
         <v>931</v>
@@ -3467,7 +3467,7 @@
         <v>616</v>
       </c>
       <c r="D15">
-        <v>820</v>
+        <v>619</v>
       </c>
       <c r="F15" t="s">
         <v>931</v>
@@ -3487,7 +3487,7 @@
         <v>616</v>
       </c>
       <c r="D16">
-        <v>820</v>
+        <v>619</v>
       </c>
       <c r="F16" t="s">
         <v>931</v>
@@ -3507,7 +3507,7 @@
         <v>616</v>
       </c>
       <c r="D17">
-        <v>820</v>
+        <v>619</v>
       </c>
       <c r="F17" t="s">
         <v>931</v>
@@ -3527,7 +3527,7 @@
         <v>617</v>
       </c>
       <c r="D18">
-        <v>903</v>
+        <v>514</v>
       </c>
       <c r="F18" t="s">
         <v>931</v>
@@ -3547,7 +3547,7 @@
         <v>617</v>
       </c>
       <c r="D19">
-        <v>903</v>
+        <v>514</v>
       </c>
       <c r="F19" t="s">
         <v>931</v>
@@ -3567,7 +3567,7 @@
         <v>617</v>
       </c>
       <c r="D20">
-        <v>903</v>
+        <v>514</v>
       </c>
       <c r="F20" t="s">
         <v>931</v>
@@ -3587,7 +3587,7 @@
         <v>617</v>
       </c>
       <c r="D21">
-        <v>903</v>
+        <v>514</v>
       </c>
       <c r="F21" t="s">
         <v>931</v>
@@ -3607,7 +3607,7 @@
         <v>618</v>
       </c>
       <c r="D22">
-        <v>866</v>
+        <v>687</v>
       </c>
       <c r="F22" t="s">
         <v>931</v>
@@ -3627,7 +3627,7 @@
         <v>618</v>
       </c>
       <c r="D23">
-        <v>866</v>
+        <v>687</v>
       </c>
       <c r="F23" t="s">
         <v>931</v>
@@ -3647,7 +3647,7 @@
         <v>618</v>
       </c>
       <c r="D24">
-        <v>866</v>
+        <v>687</v>
       </c>
       <c r="F24" t="s">
         <v>931</v>
@@ -3667,7 +3667,7 @@
         <v>618</v>
       </c>
       <c r="D25">
-        <v>866</v>
+        <v>687</v>
       </c>
       <c r="F25" t="s">
         <v>931</v>
@@ -3687,7 +3687,7 @@
         <v>619</v>
       </c>
       <c r="D26">
-        <v>622</v>
+        <v>942</v>
       </c>
       <c r="F26" t="s">
         <v>931</v>
@@ -3707,7 +3707,7 @@
         <v>619</v>
       </c>
       <c r="D27">
-        <v>622</v>
+        <v>942</v>
       </c>
       <c r="F27" t="s">
         <v>931</v>
@@ -3727,7 +3727,7 @@
         <v>619</v>
       </c>
       <c r="D28">
-        <v>622</v>
+        <v>942</v>
       </c>
       <c r="F28" t="s">
         <v>931</v>
@@ -3747,7 +3747,7 @@
         <v>619</v>
       </c>
       <c r="D29">
-        <v>622</v>
+        <v>942</v>
       </c>
       <c r="F29" t="s">
         <v>931</v>
@@ -3767,7 +3767,7 @@
         <v>620</v>
       </c>
       <c r="D30">
-        <v>519</v>
+        <v>690</v>
       </c>
       <c r="F30" t="s">
         <v>931</v>
@@ -3787,7 +3787,7 @@
         <v>620</v>
       </c>
       <c r="D31">
-        <v>519</v>
+        <v>690</v>
       </c>
       <c r="F31" t="s">
         <v>931</v>
@@ -3807,7 +3807,7 @@
         <v>620</v>
       </c>
       <c r="D32">
-        <v>519</v>
+        <v>690</v>
       </c>
       <c r="F32" t="s">
         <v>931</v>
@@ -3827,7 +3827,7 @@
         <v>620</v>
       </c>
       <c r="D33">
-        <v>519</v>
+        <v>690</v>
       </c>
       <c r="F33" t="s">
         <v>931</v>
@@ -3847,7 +3847,7 @@
         <v>621</v>
       </c>
       <c r="D34">
-        <v>580</v>
+        <v>720</v>
       </c>
       <c r="F34" t="s">
         <v>931</v>
@@ -4027,7 +4027,7 @@
         <v>626</v>
       </c>
       <c r="D43">
-        <v>937</v>
+        <v>986</v>
       </c>
       <c r="F43" t="s">
         <v>931</v>
@@ -4047,7 +4047,7 @@
         <v>626</v>
       </c>
       <c r="D44">
-        <v>937</v>
+        <v>986</v>
       </c>
       <c r="F44" t="s">
         <v>931</v>
@@ -4247,7 +4247,7 @@
         <v>630</v>
       </c>
       <c r="D54">
-        <v>844</v>
+        <v>914</v>
       </c>
       <c r="F54" t="s">
         <v>931</v>
@@ -4267,7 +4267,7 @@
         <v>630</v>
       </c>
       <c r="D55">
-        <v>844</v>
+        <v>914</v>
       </c>
       <c r="F55" t="s">
         <v>931</v>
@@ -4287,7 +4287,7 @@
         <v>630</v>
       </c>
       <c r="D56">
-        <v>844</v>
+        <v>914</v>
       </c>
       <c r="F56" t="s">
         <v>931</v>
@@ -4307,7 +4307,7 @@
         <v>631</v>
       </c>
       <c r="D57">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F57" t="s">
         <v>931</v>
@@ -4327,7 +4327,7 @@
         <v>631</v>
       </c>
       <c r="D58">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F58" t="s">
         <v>931</v>
@@ -4487,7 +4487,7 @@
         <v>635</v>
       </c>
       <c r="D66">
-        <v>643</v>
+        <v>685</v>
       </c>
       <c r="F66" t="s">
         <v>931</v>
@@ -4507,7 +4507,7 @@
         <v>636</v>
       </c>
       <c r="D67">
-        <v>666</v>
+        <v>741</v>
       </c>
       <c r="F67" t="s">
         <v>931</v>
@@ -4527,7 +4527,7 @@
         <v>636</v>
       </c>
       <c r="D68">
-        <v>666</v>
+        <v>741</v>
       </c>
       <c r="F68" t="s">
         <v>931</v>
@@ -4547,7 +4547,7 @@
         <v>636</v>
       </c>
       <c r="D69">
-        <v>666</v>
+        <v>741</v>
       </c>
       <c r="F69" t="s">
         <v>931</v>
@@ -4567,7 +4567,7 @@
         <v>637</v>
       </c>
       <c r="D70">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="F70" t="s">
         <v>931</v>
@@ -4587,7 +4587,7 @@
         <v>637</v>
       </c>
       <c r="D71">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="F71" t="s">
         <v>931</v>
@@ -4607,7 +4607,7 @@
         <v>637</v>
       </c>
       <c r="D72">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="F72" t="s">
         <v>931</v>
@@ -4627,7 +4627,7 @@
         <v>638</v>
       </c>
       <c r="D73">
-        <v>832</v>
+        <v>524</v>
       </c>
       <c r="F73" t="s">
         <v>931</v>
@@ -4647,7 +4647,7 @@
         <v>638</v>
       </c>
       <c r="D74">
-        <v>832</v>
+        <v>524</v>
       </c>
       <c r="F74" t="s">
         <v>931</v>
@@ -4667,7 +4667,7 @@
         <v>638</v>
       </c>
       <c r="D75">
-        <v>832</v>
+        <v>524</v>
       </c>
       <c r="F75" t="s">
         <v>931</v>
@@ -4687,7 +4687,7 @@
         <v>639</v>
       </c>
       <c r="D76">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="F76" t="s">
         <v>931</v>
@@ -4767,7 +4767,7 @@
         <v>641</v>
       </c>
       <c r="D80">
-        <v>834</v>
+        <v>501</v>
       </c>
       <c r="F80" t="s">
         <v>931</v>
@@ -4907,7 +4907,7 @@
         <v>644</v>
       </c>
       <c r="D87">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="F87" t="s">
         <v>931</v>
@@ -4927,7 +4927,7 @@
         <v>644</v>
       </c>
       <c r="D88">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="F88" t="s">
         <v>931</v>
@@ -5007,7 +5007,7 @@
         <v>646</v>
       </c>
       <c r="D92">
-        <v>610</v>
+        <v>903</v>
       </c>
       <c r="F92" t="s">
         <v>931</v>
@@ -5027,7 +5027,7 @@
         <v>646</v>
       </c>
       <c r="D93">
-        <v>610</v>
+        <v>903</v>
       </c>
       <c r="F93" t="s">
         <v>931</v>
@@ -5047,7 +5047,7 @@
         <v>646</v>
       </c>
       <c r="D94">
-        <v>610</v>
+        <v>903</v>
       </c>
       <c r="F94" t="s">
         <v>931</v>
@@ -5067,7 +5067,7 @@
         <v>647</v>
       </c>
       <c r="D95">
-        <v>836</v>
+        <v>716</v>
       </c>
       <c r="F95" t="s">
         <v>931</v>
@@ -5087,7 +5087,7 @@
         <v>648</v>
       </c>
       <c r="D96">
-        <v>535</v>
+        <v>681</v>
       </c>
       <c r="F96" t="s">
         <v>931</v>
@@ -5107,7 +5107,7 @@
         <v>648</v>
       </c>
       <c r="D97">
-        <v>535</v>
+        <v>681</v>
       </c>
       <c r="F97" t="s">
         <v>931</v>
@@ -5127,7 +5127,7 @@
         <v>648</v>
       </c>
       <c r="D98">
-        <v>535</v>
+        <v>681</v>
       </c>
       <c r="F98" t="s">
         <v>931</v>
@@ -5147,7 +5147,7 @@
         <v>649</v>
       </c>
       <c r="D99">
-        <v>746</v>
+        <v>500</v>
       </c>
       <c r="F99" t="s">
         <v>931</v>
@@ -5167,7 +5167,7 @@
         <v>649</v>
       </c>
       <c r="D100">
-        <v>746</v>
+        <v>500</v>
       </c>
       <c r="F100" t="s">
         <v>931</v>
@@ -5187,7 +5187,7 @@
         <v>649</v>
       </c>
       <c r="D101">
-        <v>746</v>
+        <v>500</v>
       </c>
       <c r="F101" t="s">
         <v>931</v>
@@ -5207,7 +5207,7 @@
         <v>650</v>
       </c>
       <c r="D102">
-        <v>784</v>
+        <v>832</v>
       </c>
       <c r="F102" t="s">
         <v>931</v>
@@ -5287,7 +5287,7 @@
         <v>652</v>
       </c>
       <c r="D106">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F106" t="s">
         <v>931</v>
@@ -5307,7 +5307,7 @@
         <v>652</v>
       </c>
       <c r="D107">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F107" t="s">
         <v>931</v>
@@ -5327,7 +5327,7 @@
         <v>652</v>
       </c>
       <c r="D108">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F108" t="s">
         <v>931</v>
@@ -5367,7 +5367,7 @@
         <v>654</v>
       </c>
       <c r="D110">
-        <v>747</v>
+        <v>500</v>
       </c>
       <c r="F110" t="s">
         <v>931</v>
@@ -5387,7 +5387,7 @@
         <v>654</v>
       </c>
       <c r="D111">
-        <v>747</v>
+        <v>500</v>
       </c>
       <c r="F111" t="s">
         <v>931</v>
@@ -5407,7 +5407,7 @@
         <v>654</v>
       </c>
       <c r="D112">
-        <v>747</v>
+        <v>500</v>
       </c>
       <c r="F112" t="s">
         <v>931</v>
@@ -5427,7 +5427,7 @@
         <v>655</v>
       </c>
       <c r="D113">
-        <v>746</v>
+        <v>901</v>
       </c>
       <c r="F113" t="s">
         <v>931</v>
@@ -5447,7 +5447,7 @@
         <v>655</v>
       </c>
       <c r="D114">
-        <v>746</v>
+        <v>901</v>
       </c>
       <c r="F114" t="s">
         <v>931</v>
@@ -5507,7 +5507,7 @@
         <v>657</v>
       </c>
       <c r="D117">
-        <v>723</v>
+        <v>690</v>
       </c>
       <c r="F117" t="s">
         <v>931</v>
@@ -5587,7 +5587,7 @@
         <v>659</v>
       </c>
       <c r="D121">
-        <v>899</v>
+        <v>674</v>
       </c>
       <c r="F121" t="s">
         <v>931</v>
@@ -5607,7 +5607,7 @@
         <v>659</v>
       </c>
       <c r="D122">
-        <v>899</v>
+        <v>674</v>
       </c>
       <c r="F122" t="s">
         <v>931</v>
@@ -5627,7 +5627,7 @@
         <v>659</v>
       </c>
       <c r="D123">
-        <v>899</v>
+        <v>674</v>
       </c>
       <c r="F123" t="s">
         <v>931</v>
@@ -5647,7 +5647,7 @@
         <v>660</v>
       </c>
       <c r="D124">
-        <v>986</v>
+        <v>514</v>
       </c>
       <c r="F124" t="s">
         <v>931</v>
@@ -5667,7 +5667,7 @@
         <v>660</v>
       </c>
       <c r="D125">
-        <v>986</v>
+        <v>514</v>
       </c>
       <c r="F125" t="s">
         <v>931</v>
@@ -5687,7 +5687,7 @@
         <v>661</v>
       </c>
       <c r="D126">
-        <v>995</v>
+        <v>538</v>
       </c>
       <c r="F126" t="s">
         <v>931</v>
@@ -5707,7 +5707,7 @@
         <v>661</v>
       </c>
       <c r="D127">
-        <v>995</v>
+        <v>538</v>
       </c>
       <c r="F127" t="s">
         <v>931</v>
@@ -5727,7 +5727,7 @@
         <v>661</v>
       </c>
       <c r="D128">
-        <v>995</v>
+        <v>538</v>
       </c>
       <c r="F128" t="s">
         <v>931</v>
@@ -5787,7 +5787,7 @@
         <v>663</v>
       </c>
       <c r="D131">
-        <v>620</v>
+        <v>547</v>
       </c>
       <c r="F131" t="s">
         <v>931</v>
@@ -5807,7 +5807,7 @@
         <v>663</v>
       </c>
       <c r="D132">
-        <v>620</v>
+        <v>547</v>
       </c>
       <c r="F132" t="s">
         <v>931</v>
@@ -5827,7 +5827,7 @@
         <v>663</v>
       </c>
       <c r="D133">
-        <v>620</v>
+        <v>547</v>
       </c>
       <c r="F133" t="s">
         <v>931</v>
@@ -5847,7 +5847,7 @@
         <v>664</v>
       </c>
       <c r="D134">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="F134" t="s">
         <v>931</v>
@@ -5867,7 +5867,7 @@
         <v>664</v>
       </c>
       <c r="D135">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="F135" t="s">
         <v>931</v>
@@ -5887,7 +5887,7 @@
         <v>664</v>
       </c>
       <c r="D136">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="F136" t="s">
         <v>931</v>
@@ -5907,7 +5907,7 @@
         <v>665</v>
       </c>
       <c r="D137">
-        <v>824</v>
+        <v>716</v>
       </c>
       <c r="F137" t="s">
         <v>931</v>
@@ -5927,7 +5927,7 @@
         <v>665</v>
       </c>
       <c r="D138">
-        <v>824</v>
+        <v>716</v>
       </c>
       <c r="F138" t="s">
         <v>931</v>
@@ -5947,7 +5947,7 @@
         <v>665</v>
       </c>
       <c r="D139">
-        <v>824</v>
+        <v>716</v>
       </c>
       <c r="F139" t="s">
         <v>931</v>
@@ -5987,7 +5987,7 @@
         <v>667</v>
       </c>
       <c r="D141">
-        <v>876</v>
+        <v>760</v>
       </c>
       <c r="F141" t="s">
         <v>931</v>
@@ -6007,7 +6007,7 @@
         <v>667</v>
       </c>
       <c r="D142">
-        <v>876</v>
+        <v>760</v>
       </c>
       <c r="F142" t="s">
         <v>931</v>
@@ -6027,7 +6027,7 @@
         <v>667</v>
       </c>
       <c r="D143">
-        <v>876</v>
+        <v>760</v>
       </c>
       <c r="F143" t="s">
         <v>931</v>
@@ -6107,7 +6107,7 @@
         <v>669</v>
       </c>
       <c r="D147">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="F147" t="s">
         <v>931</v>
@@ -6127,7 +6127,7 @@
         <v>669</v>
       </c>
       <c r="D148">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="F148" t="s">
         <v>931</v>
@@ -6147,7 +6147,7 @@
         <v>669</v>
       </c>
       <c r="D149">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="F149" t="s">
         <v>931</v>
@@ -6167,7 +6167,7 @@
         <v>670</v>
       </c>
       <c r="D150">
-        <v>992</v>
+        <v>881</v>
       </c>
       <c r="F150" t="s">
         <v>931</v>
@@ -6187,7 +6187,7 @@
         <v>670</v>
       </c>
       <c r="D151">
-        <v>992</v>
+        <v>881</v>
       </c>
       <c r="F151" t="s">
         <v>931</v>
@@ -6207,7 +6207,7 @@
         <v>670</v>
       </c>
       <c r="D152">
-        <v>992</v>
+        <v>881</v>
       </c>
       <c r="F152" t="s">
         <v>931</v>
@@ -6227,7 +6227,7 @@
         <v>671</v>
       </c>
       <c r="D153">
-        <v>822</v>
+        <v>687</v>
       </c>
       <c r="F153" t="s">
         <v>931</v>
@@ -6247,7 +6247,7 @@
         <v>672</v>
       </c>
       <c r="D154">
-        <v>857</v>
+        <v>610</v>
       </c>
       <c r="F154" t="s">
         <v>931</v>
@@ -6267,7 +6267,7 @@
         <v>673</v>
       </c>
       <c r="D155">
-        <v>903</v>
+        <v>812</v>
       </c>
       <c r="F155" t="s">
         <v>931</v>
@@ -6287,7 +6287,7 @@
         <v>673</v>
       </c>
       <c r="D156">
-        <v>903</v>
+        <v>812</v>
       </c>
       <c r="F156" t="s">
         <v>931</v>
@@ -6307,7 +6307,7 @@
         <v>673</v>
       </c>
       <c r="D157">
-        <v>903</v>
+        <v>812</v>
       </c>
       <c r="F157" t="s">
         <v>931</v>
@@ -6327,7 +6327,7 @@
         <v>674</v>
       </c>
       <c r="D158">
-        <v>595</v>
+        <v>730</v>
       </c>
       <c r="F158" t="s">
         <v>931</v>
@@ -6347,7 +6347,7 @@
         <v>674</v>
       </c>
       <c r="D159">
-        <v>595</v>
+        <v>730</v>
       </c>
       <c r="F159" t="s">
         <v>931</v>
@@ -6367,7 +6367,7 @@
         <v>674</v>
       </c>
       <c r="D160">
-        <v>595</v>
+        <v>730</v>
       </c>
       <c r="F160" t="s">
         <v>931</v>
@@ -6447,7 +6447,7 @@
         <v>676</v>
       </c>
       <c r="D164">
-        <v>603</v>
+        <v>773</v>
       </c>
       <c r="F164" t="s">
         <v>931</v>
@@ -6467,7 +6467,7 @@
         <v>676</v>
       </c>
       <c r="D165">
-        <v>603</v>
+        <v>773</v>
       </c>
       <c r="F165" t="s">
         <v>931</v>
@@ -6487,7 +6487,7 @@
         <v>676</v>
       </c>
       <c r="D166">
-        <v>603</v>
+        <v>773</v>
       </c>
       <c r="F166" t="s">
         <v>931</v>
@@ -6507,7 +6507,7 @@
         <v>677</v>
       </c>
       <c r="D167">
-        <v>767</v>
+        <v>655</v>
       </c>
       <c r="F167" t="s">
         <v>931</v>
@@ -6527,7 +6527,7 @@
         <v>677</v>
       </c>
       <c r="D168">
-        <v>767</v>
+        <v>655</v>
       </c>
       <c r="F168" t="s">
         <v>931</v>
@@ -6547,7 +6547,7 @@
         <v>678</v>
       </c>
       <c r="D169">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="F169" t="s">
         <v>931</v>
@@ -6567,7 +6567,7 @@
         <v>678</v>
       </c>
       <c r="D170">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="F170" t="s">
         <v>931</v>
@@ -6587,7 +6587,7 @@
         <v>678</v>
       </c>
       <c r="D171">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="F171" t="s">
         <v>931</v>
@@ -6627,7 +6627,7 @@
         <v>680</v>
       </c>
       <c r="D173">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="F173" t="s">
         <v>931</v>
@@ -6647,7 +6647,7 @@
         <v>680</v>
       </c>
       <c r="D174">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="F174" t="s">
         <v>931</v>
@@ -6667,7 +6667,7 @@
         <v>680</v>
       </c>
       <c r="D175">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="F175" t="s">
         <v>931</v>
@@ -6687,7 +6687,7 @@
         <v>681</v>
       </c>
       <c r="D176">
-        <v>760</v>
+        <v>925</v>
       </c>
       <c r="F176" t="s">
         <v>931</v>
@@ -6707,7 +6707,7 @@
         <v>681</v>
       </c>
       <c r="D177">
-        <v>760</v>
+        <v>925</v>
       </c>
       <c r="F177" t="s">
         <v>931</v>
@@ -6727,7 +6727,7 @@
         <v>681</v>
       </c>
       <c r="D178">
-        <v>760</v>
+        <v>925</v>
       </c>
       <c r="F178" t="s">
         <v>931</v>
@@ -6747,7 +6747,7 @@
         <v>682</v>
       </c>
       <c r="D179">
-        <v>703</v>
+        <v>820</v>
       </c>
       <c r="F179" t="s">
         <v>931</v>
@@ -6767,7 +6767,7 @@
         <v>682</v>
       </c>
       <c r="D180">
-        <v>703</v>
+        <v>820</v>
       </c>
       <c r="F180" t="s">
         <v>931</v>
@@ -6787,7 +6787,7 @@
         <v>682</v>
       </c>
       <c r="D181">
-        <v>703</v>
+        <v>820</v>
       </c>
       <c r="F181" t="s">
         <v>931</v>
@@ -6807,7 +6807,7 @@
         <v>683</v>
       </c>
       <c r="D182">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="F182" t="s">
         <v>931</v>
@@ -6887,7 +6887,7 @@
         <v>685</v>
       </c>
       <c r="D186">
-        <v>983</v>
+        <v>577</v>
       </c>
       <c r="F186" t="s">
         <v>931</v>
@@ -6907,7 +6907,7 @@
         <v>686</v>
       </c>
       <c r="D187">
-        <v>671</v>
+        <v>946</v>
       </c>
       <c r="F187" t="s">
         <v>931</v>
@@ -6927,7 +6927,7 @@
         <v>687</v>
       </c>
       <c r="D188">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="F188" t="s">
         <v>931</v>
@@ -6947,7 +6947,7 @@
         <v>688</v>
       </c>
       <c r="D189">
-        <v>895</v>
+        <v>775</v>
       </c>
       <c r="F189" t="s">
         <v>931</v>
@@ -6967,7 +6967,7 @@
         <v>689</v>
       </c>
       <c r="D190">
-        <v>802</v>
+        <v>990</v>
       </c>
       <c r="F190" t="s">
         <v>931</v>
@@ -7047,7 +7047,7 @@
         <v>691</v>
       </c>
       <c r="D194">
-        <v>612</v>
+        <v>920</v>
       </c>
       <c r="F194" t="s">
         <v>931</v>
@@ -7127,7 +7127,7 @@
         <v>693</v>
       </c>
       <c r="D198">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="F198" t="s">
         <v>931</v>
@@ -7147,7 +7147,7 @@
         <v>693</v>
       </c>
       <c r="D199">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="F199" t="s">
         <v>931</v>
@@ -7167,7 +7167,7 @@
         <v>694</v>
       </c>
       <c r="D200">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="F200" t="s">
         <v>931</v>
@@ -7187,7 +7187,7 @@
         <v>694</v>
       </c>
       <c r="D201">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="F201" t="s">
         <v>931</v>
@@ -7207,7 +7207,7 @@
         <v>694</v>
       </c>
       <c r="D202">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="F202" t="s">
         <v>931</v>
@@ -7227,7 +7227,7 @@
         <v>695</v>
       </c>
       <c r="D203">
-        <v>649</v>
+        <v>514</v>
       </c>
       <c r="F203" t="s">
         <v>931</v>
@@ -7247,7 +7247,7 @@
         <v>696</v>
       </c>
       <c r="D204">
-        <v>764</v>
+        <v>886</v>
       </c>
       <c r="F204" t="s">
         <v>931</v>
@@ -7267,7 +7267,7 @@
         <v>696</v>
       </c>
       <c r="D205">
-        <v>764</v>
+        <v>886</v>
       </c>
       <c r="F205" t="s">
         <v>931</v>
@@ -7287,7 +7287,7 @@
         <v>696</v>
       </c>
       <c r="D206">
-        <v>764</v>
+        <v>886</v>
       </c>
       <c r="F206" t="s">
         <v>931</v>
@@ -7307,7 +7307,7 @@
         <v>697</v>
       </c>
       <c r="D207">
-        <v>636</v>
+        <v>824</v>
       </c>
       <c r="F207" t="s">
         <v>931</v>
@@ -7327,7 +7327,7 @@
         <v>698</v>
       </c>
       <c r="D208">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="F208" t="s">
         <v>931</v>
@@ -7347,7 +7347,7 @@
         <v>698</v>
       </c>
       <c r="D209">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="F209" t="s">
         <v>931</v>
@@ -7367,7 +7367,7 @@
         <v>698</v>
       </c>
       <c r="D210">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="F210" t="s">
         <v>931</v>
@@ -7387,7 +7387,7 @@
         <v>699</v>
       </c>
       <c r="D211">
-        <v>1000</v>
+        <v>546</v>
       </c>
       <c r="F211" t="s">
         <v>931</v>
@@ -7407,7 +7407,7 @@
         <v>699</v>
       </c>
       <c r="D212">
-        <v>1000</v>
+        <v>546</v>
       </c>
       <c r="F212" t="s">
         <v>931</v>
@@ -7427,7 +7427,7 @@
         <v>700</v>
       </c>
       <c r="D213">
-        <v>723</v>
+        <v>836</v>
       </c>
       <c r="F213" t="s">
         <v>931</v>
@@ -7567,7 +7567,7 @@
         <v>704</v>
       </c>
       <c r="D220">
-        <v>608</v>
+        <v>694</v>
       </c>
       <c r="F220" t="s">
         <v>931</v>
@@ -7587,7 +7587,7 @@
         <v>704</v>
       </c>
       <c r="D221">
-        <v>608</v>
+        <v>694</v>
       </c>
       <c r="F221" t="s">
         <v>931</v>
@@ -7607,7 +7607,7 @@
         <v>704</v>
       </c>
       <c r="D222">
-        <v>608</v>
+        <v>694</v>
       </c>
       <c r="F222" t="s">
         <v>931</v>
@@ -7627,7 +7627,7 @@
         <v>705</v>
       </c>
       <c r="D223">
-        <v>968</v>
+        <v>714</v>
       </c>
       <c r="F223" t="s">
         <v>931</v>
@@ -7647,7 +7647,7 @@
         <v>706</v>
       </c>
       <c r="D224">
-        <v>727</v>
+        <v>517</v>
       </c>
       <c r="F224" t="s">
         <v>931</v>
@@ -7667,7 +7667,7 @@
         <v>706</v>
       </c>
       <c r="D225">
-        <v>727</v>
+        <v>517</v>
       </c>
       <c r="F225" t="s">
         <v>931</v>
@@ -7687,7 +7687,7 @@
         <v>706</v>
       </c>
       <c r="D226">
-        <v>727</v>
+        <v>517</v>
       </c>
       <c r="F226" t="s">
         <v>931</v>
@@ -7707,7 +7707,7 @@
         <v>707</v>
       </c>
       <c r="D227">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="F227" t="s">
         <v>931</v>
@@ -7727,7 +7727,7 @@
         <v>707</v>
       </c>
       <c r="D228">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="F228" t="s">
         <v>931</v>
@@ -7747,7 +7747,7 @@
         <v>708</v>
       </c>
       <c r="D229">
-        <v>630</v>
+        <v>941</v>
       </c>
       <c r="F229" t="s">
         <v>931</v>
@@ -7767,7 +7767,7 @@
         <v>709</v>
       </c>
       <c r="D230">
-        <v>742</v>
+        <v>644</v>
       </c>
       <c r="F230" t="s">
         <v>931</v>
@@ -7787,7 +7787,7 @@
         <v>709</v>
       </c>
       <c r="D231">
-        <v>742</v>
+        <v>644</v>
       </c>
       <c r="F231" t="s">
         <v>931</v>
@@ -7807,7 +7807,7 @@
         <v>709</v>
       </c>
       <c r="D232">
-        <v>742</v>
+        <v>644</v>
       </c>
       <c r="F232" t="s">
         <v>931</v>
@@ -7827,7 +7827,7 @@
         <v>710</v>
       </c>
       <c r="D233">
-        <v>986</v>
+        <v>765</v>
       </c>
       <c r="F233" t="s">
         <v>931</v>
@@ -7847,7 +7847,7 @@
         <v>710</v>
       </c>
       <c r="D234">
-        <v>986</v>
+        <v>765</v>
       </c>
       <c r="F234" t="s">
         <v>931</v>
@@ -7867,7 +7867,7 @@
         <v>710</v>
       </c>
       <c r="D235">
-        <v>986</v>
+        <v>765</v>
       </c>
       <c r="F235" t="s">
         <v>931</v>
@@ -7887,7 +7887,7 @@
         <v>711</v>
       </c>
       <c r="D236">
-        <v>729</v>
+        <v>500</v>
       </c>
       <c r="F236" t="s">
         <v>931</v>
@@ -7907,7 +7907,7 @@
         <v>712</v>
       </c>
       <c r="D237">
-        <v>994</v>
+        <v>738</v>
       </c>
       <c r="F237" t="s">
         <v>931</v>
@@ -7927,7 +7927,7 @@
         <v>712</v>
       </c>
       <c r="D238">
-        <v>994</v>
+        <v>738</v>
       </c>
       <c r="F238" t="s">
         <v>931</v>
@@ -7947,7 +7947,7 @@
         <v>712</v>
       </c>
       <c r="D239">
-        <v>994</v>
+        <v>738</v>
       </c>
       <c r="F239" t="s">
         <v>931</v>
@@ -8007,7 +8007,7 @@
         <v>714</v>
       </c>
       <c r="D242">
-        <v>656</v>
+        <v>861</v>
       </c>
       <c r="F242" t="s">
         <v>931</v>
@@ -8027,7 +8027,7 @@
         <v>714</v>
       </c>
       <c r="D243">
-        <v>656</v>
+        <v>861</v>
       </c>
       <c r="F243" t="s">
         <v>931</v>
@@ -8047,7 +8047,7 @@
         <v>714</v>
       </c>
       <c r="D244">
-        <v>656</v>
+        <v>861</v>
       </c>
       <c r="F244" t="s">
         <v>931</v>
@@ -8067,7 +8067,7 @@
         <v>715</v>
       </c>
       <c r="D245">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="F245" t="s">
         <v>931</v>
@@ -8087,7 +8087,7 @@
         <v>715</v>
       </c>
       <c r="D246">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="F246" t="s">
         <v>931</v>
@@ -8107,7 +8107,7 @@
         <v>715</v>
       </c>
       <c r="D247">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="F247" t="s">
         <v>931</v>
@@ -8127,7 +8127,7 @@
         <v>716</v>
       </c>
       <c r="D248">
-        <v>849</v>
+        <v>730</v>
       </c>
       <c r="F248" t="s">
         <v>931</v>
@@ -8147,7 +8147,7 @@
         <v>716</v>
       </c>
       <c r="D249">
-        <v>849</v>
+        <v>730</v>
       </c>
       <c r="F249" t="s">
         <v>931</v>
@@ -8167,7 +8167,7 @@
         <v>716</v>
       </c>
       <c r="D250">
-        <v>849</v>
+        <v>730</v>
       </c>
       <c r="F250" t="s">
         <v>931</v>
@@ -8187,7 +8187,7 @@
         <v>717</v>
       </c>
       <c r="D251">
-        <v>736</v>
+        <v>924</v>
       </c>
       <c r="F251" t="s">
         <v>931</v>
@@ -8207,7 +8207,7 @@
         <v>717</v>
       </c>
       <c r="D252">
-        <v>736</v>
+        <v>924</v>
       </c>
       <c r="F252" t="s">
         <v>931</v>
@@ -8227,7 +8227,7 @@
         <v>717</v>
       </c>
       <c r="D253">
-        <v>736</v>
+        <v>924</v>
       </c>
       <c r="F253" t="s">
         <v>931</v>
@@ -8247,7 +8247,7 @@
         <v>718</v>
       </c>
       <c r="D254">
-        <v>500</v>
+        <v>795</v>
       </c>
       <c r="F254" t="s">
         <v>931</v>
@@ -8267,7 +8267,7 @@
         <v>718</v>
       </c>
       <c r="D255">
-        <v>500</v>
+        <v>795</v>
       </c>
       <c r="F255" t="s">
         <v>931</v>
@@ -8287,7 +8287,7 @@
         <v>719</v>
       </c>
       <c r="D256">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="F256" t="s">
         <v>931</v>
@@ -8307,7 +8307,7 @@
         <v>719</v>
       </c>
       <c r="D257">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="F257" t="s">
         <v>931</v>
@@ -8327,7 +8327,7 @@
         <v>719</v>
       </c>
       <c r="D258">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="F258" t="s">
         <v>931</v>
@@ -8347,7 +8347,7 @@
         <v>720</v>
       </c>
       <c r="D259">
-        <v>879</v>
+        <v>611</v>
       </c>
       <c r="F259" t="s">
         <v>931</v>
@@ -8367,7 +8367,7 @@
         <v>720</v>
       </c>
       <c r="D260">
-        <v>879</v>
+        <v>611</v>
       </c>
       <c r="F260" t="s">
         <v>931</v>
@@ -8387,7 +8387,7 @@
         <v>721</v>
       </c>
       <c r="D261">
-        <v>874</v>
+        <v>550</v>
       </c>
       <c r="F261" t="s">
         <v>931</v>
@@ -8467,7 +8467,7 @@
         <v>723</v>
       </c>
       <c r="D265">
-        <v>752</v>
+        <v>937</v>
       </c>
       <c r="F265" t="s">
         <v>931</v>
@@ -8487,7 +8487,7 @@
         <v>723</v>
       </c>
       <c r="D266">
-        <v>752</v>
+        <v>937</v>
       </c>
       <c r="F266" t="s">
         <v>931</v>
@@ -8507,7 +8507,7 @@
         <v>723</v>
       </c>
       <c r="D267">
-        <v>752</v>
+        <v>937</v>
       </c>
       <c r="F267" t="s">
         <v>931</v>
@@ -8527,7 +8527,7 @@
         <v>724</v>
       </c>
       <c r="D268">
-        <v>728</v>
+        <v>662</v>
       </c>
       <c r="F268" t="s">
         <v>931</v>
@@ -8547,7 +8547,7 @@
         <v>725</v>
       </c>
       <c r="D269">
-        <v>578</v>
+        <v>859</v>
       </c>
       <c r="F269" t="s">
         <v>931</v>
@@ -8567,7 +8567,7 @@
         <v>725</v>
       </c>
       <c r="D270">
-        <v>578</v>
+        <v>859</v>
       </c>
       <c r="F270" t="s">
         <v>931</v>
@@ -8587,7 +8587,7 @@
         <v>726</v>
       </c>
       <c r="D271">
-        <v>999</v>
+        <v>635</v>
       </c>
       <c r="F271" t="s">
         <v>931</v>
@@ -8607,7 +8607,7 @@
         <v>726</v>
       </c>
       <c r="D272">
-        <v>999</v>
+        <v>635</v>
       </c>
       <c r="F272" t="s">
         <v>931</v>
@@ -8627,7 +8627,7 @@
         <v>726</v>
       </c>
       <c r="D273">
-        <v>999</v>
+        <v>635</v>
       </c>
       <c r="F273" t="s">
         <v>931</v>
@@ -8647,7 +8647,7 @@
         <v>727</v>
       </c>
       <c r="D274">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="F274" t="s">
         <v>931</v>
@@ -8667,7 +8667,7 @@
         <v>727</v>
       </c>
       <c r="D275">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="F275" t="s">
         <v>931</v>
@@ -8687,7 +8687,7 @@
         <v>727</v>
       </c>
       <c r="D276">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="F276" t="s">
         <v>931</v>
@@ -8707,7 +8707,7 @@
         <v>728</v>
       </c>
       <c r="D277">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F277" t="s">
         <v>931</v>
@@ -8727,7 +8727,7 @@
         <v>728</v>
       </c>
       <c r="D278">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F278" t="s">
         <v>931</v>
@@ -8747,7 +8747,7 @@
         <v>728</v>
       </c>
       <c r="D279">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="F279" t="s">
         <v>931</v>
@@ -8767,7 +8767,7 @@
         <v>729</v>
       </c>
       <c r="D280">
-        <v>557</v>
+        <v>844</v>
       </c>
       <c r="F280" t="s">
         <v>931</v>
@@ -8787,7 +8787,7 @@
         <v>729</v>
       </c>
       <c r="D281">
-        <v>557</v>
+        <v>844</v>
       </c>
       <c r="F281" t="s">
         <v>931</v>
@@ -8807,7 +8807,7 @@
         <v>729</v>
       </c>
       <c r="D282">
-        <v>557</v>
+        <v>844</v>
       </c>
       <c r="F282" t="s">
         <v>931</v>
@@ -8827,7 +8827,7 @@
         <v>730</v>
       </c>
       <c r="D283">
-        <v>605</v>
+        <v>763</v>
       </c>
       <c r="F283" t="s">
         <v>931</v>
@@ -8847,7 +8847,7 @@
         <v>730</v>
       </c>
       <c r="D284">
-        <v>605</v>
+        <v>763</v>
       </c>
       <c r="F284" t="s">
         <v>931</v>
@@ -8867,7 +8867,7 @@
         <v>730</v>
       </c>
       <c r="D285">
-        <v>605</v>
+        <v>763</v>
       </c>
       <c r="F285" t="s">
         <v>931</v>
@@ -8987,7 +8987,7 @@
         <v>733</v>
       </c>
       <c r="D291">
-        <v>821</v>
+        <v>905</v>
       </c>
       <c r="F291" t="s">
         <v>931</v>
@@ -9007,7 +9007,7 @@
         <v>733</v>
       </c>
       <c r="D292">
-        <v>821</v>
+        <v>905</v>
       </c>
       <c r="F292" t="s">
         <v>931</v>
@@ -9027,7 +9027,7 @@
         <v>734</v>
       </c>
       <c r="D293">
-        <v>770</v>
+        <v>732</v>
       </c>
       <c r="F293" t="s">
         <v>931</v>
@@ -9187,7 +9187,7 @@
         <v>738</v>
       </c>
       <c r="D301">
-        <v>664</v>
+        <v>904</v>
       </c>
       <c r="F301" t="s">
         <v>931</v>
@@ -9207,7 +9207,7 @@
         <v>738</v>
       </c>
       <c r="D302">
-        <v>664</v>
+        <v>904</v>
       </c>
       <c r="F302" t="s">
         <v>931</v>
@@ -9227,7 +9227,7 @@
         <v>738</v>
       </c>
       <c r="D303">
-        <v>664</v>
+        <v>904</v>
       </c>
       <c r="F303" t="s">
         <v>931</v>
@@ -9247,7 +9247,7 @@
         <v>739</v>
       </c>
       <c r="D304">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F304" t="s">
         <v>931</v>
@@ -9267,7 +9267,7 @@
         <v>739</v>
       </c>
       <c r="D305">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F305" t="s">
         <v>931</v>
@@ -9287,7 +9287,7 @@
         <v>740</v>
       </c>
       <c r="D306">
-        <v>560</v>
+        <v>936</v>
       </c>
       <c r="F306" t="s">
         <v>931</v>
@@ -9307,7 +9307,7 @@
         <v>740</v>
       </c>
       <c r="D307">
-        <v>560</v>
+        <v>936</v>
       </c>
       <c r="F307" t="s">
         <v>931</v>
@@ -9327,7 +9327,7 @@
         <v>740</v>
       </c>
       <c r="D308">
-        <v>560</v>
+        <v>936</v>
       </c>
       <c r="F308" t="s">
         <v>931</v>
@@ -9347,7 +9347,7 @@
         <v>741</v>
       </c>
       <c r="D309">
-        <v>912</v>
+        <v>834</v>
       </c>
       <c r="F309" t="s">
         <v>931</v>
@@ -9367,7 +9367,7 @@
         <v>741</v>
       </c>
       <c r="D310">
-        <v>912</v>
+        <v>834</v>
       </c>
       <c r="F310" t="s">
         <v>931</v>
@@ -9387,7 +9387,7 @@
         <v>742</v>
       </c>
       <c r="D311">
-        <v>997</v>
+        <v>607</v>
       </c>
       <c r="F311" t="s">
         <v>931</v>
@@ -9407,7 +9407,7 @@
         <v>742</v>
       </c>
       <c r="D312">
-        <v>997</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
         <v>931</v>
@@ -9427,7 +9427,7 @@
         <v>742</v>
       </c>
       <c r="D313">
-        <v>997</v>
+        <v>607</v>
       </c>
       <c r="F313" t="s">
         <v>931</v>
@@ -9567,7 +9567,7 @@
         <v>745</v>
       </c>
       <c r="D320">
-        <v>817</v>
+        <v>738</v>
       </c>
       <c r="F320" t="s">
         <v>931</v>
@@ -9587,7 +9587,7 @@
         <v>745</v>
       </c>
       <c r="D321">
-        <v>817</v>
+        <v>738</v>
       </c>
       <c r="F321" t="s">
         <v>931</v>
@@ -9607,7 +9607,7 @@
         <v>745</v>
       </c>
       <c r="D322">
-        <v>817</v>
+        <v>738</v>
       </c>
       <c r="F322" t="s">
         <v>931</v>
@@ -9687,7 +9687,7 @@
         <v>747</v>
       </c>
       <c r="D326">
-        <v>585</v>
+        <v>742</v>
       </c>
       <c r="F326" t="s">
         <v>931</v>
@@ -9707,7 +9707,7 @@
         <v>747</v>
       </c>
       <c r="D327">
-        <v>585</v>
+        <v>742</v>
       </c>
       <c r="F327" t="s">
         <v>931</v>
@@ -9727,7 +9727,7 @@
         <v>747</v>
       </c>
       <c r="D328">
-        <v>585</v>
+        <v>742</v>
       </c>
       <c r="F328" t="s">
         <v>931</v>
@@ -9807,7 +9807,7 @@
         <v>749</v>
       </c>
       <c r="D332">
-        <v>586</v>
+        <v>505</v>
       </c>
       <c r="F332" t="s">
         <v>931</v>
@@ -9827,7 +9827,7 @@
         <v>749</v>
       </c>
       <c r="D333">
-        <v>586</v>
+        <v>505</v>
       </c>
       <c r="F333" t="s">
         <v>931</v>
@@ -9927,7 +9927,7 @@
         <v>753</v>
       </c>
       <c r="D338">
-        <v>564</v>
+        <v>955</v>
       </c>
       <c r="F338" t="s">
         <v>931</v>
@@ -9947,7 +9947,7 @@
         <v>753</v>
       </c>
       <c r="D339">
-        <v>564</v>
+        <v>955</v>
       </c>
       <c r="F339" t="s">
         <v>931</v>
@@ -9967,7 +9967,7 @@
         <v>753</v>
       </c>
       <c r="D340">
-        <v>564</v>
+        <v>955</v>
       </c>
       <c r="F340" t="s">
         <v>931</v>
@@ -9987,7 +9987,7 @@
         <v>754</v>
       </c>
       <c r="D341">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="F341" t="s">
         <v>931</v>
@@ -10007,7 +10007,7 @@
         <v>754</v>
       </c>
       <c r="D342">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="F342" t="s">
         <v>931</v>
@@ -10027,7 +10027,7 @@
         <v>754</v>
       </c>
       <c r="D343">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="F343" t="s">
         <v>931</v>
@@ -10047,7 +10047,7 @@
         <v>755</v>
       </c>
       <c r="D344">
-        <v>721</v>
+        <v>542</v>
       </c>
       <c r="F344" t="s">
         <v>931</v>
@@ -10067,7 +10067,7 @@
         <v>755</v>
       </c>
       <c r="D345">
-        <v>721</v>
+        <v>542</v>
       </c>
       <c r="F345" t="s">
         <v>931</v>
@@ -10087,7 +10087,7 @@
         <v>755</v>
       </c>
       <c r="D346">
-        <v>721</v>
+        <v>542</v>
       </c>
       <c r="F346" t="s">
         <v>931</v>
@@ -10107,7 +10107,7 @@
         <v>756</v>
       </c>
       <c r="D347">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="F347" t="s">
         <v>931</v>
@@ -10127,7 +10127,7 @@
         <v>757</v>
       </c>
       <c r="D348">
-        <v>981</v>
+        <v>778</v>
       </c>
       <c r="F348" t="s">
         <v>931</v>
@@ -10147,7 +10147,7 @@
         <v>758</v>
       </c>
       <c r="D349">
-        <v>557</v>
+        <v>680</v>
       </c>
       <c r="F349" t="s">
         <v>931</v>
@@ -10167,7 +10167,7 @@
         <v>759</v>
       </c>
       <c r="D350">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F350" t="s">
         <v>931</v>
@@ -10187,7 +10187,7 @@
         <v>759</v>
       </c>
       <c r="D351">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F351" t="s">
         <v>931</v>
@@ -10207,7 +10207,7 @@
         <v>760</v>
       </c>
       <c r="D352">
-        <v>779</v>
+        <v>917</v>
       </c>
       <c r="F352" t="s">
         <v>931</v>
@@ -10227,7 +10227,7 @@
         <v>761</v>
       </c>
       <c r="D353">
-        <v>932</v>
+        <v>516</v>
       </c>
       <c r="F353" t="s">
         <v>931</v>
@@ -10247,7 +10247,7 @@
         <v>762</v>
       </c>
       <c r="D354">
-        <v>704</v>
+        <v>623</v>
       </c>
       <c r="F354" t="s">
         <v>931</v>
@@ -10267,7 +10267,7 @@
         <v>762</v>
       </c>
       <c r="D355">
-        <v>704</v>
+        <v>623</v>
       </c>
       <c r="F355" t="s">
         <v>931</v>
@@ -10287,7 +10287,7 @@
         <v>762</v>
       </c>
       <c r="D356">
-        <v>704</v>
+        <v>623</v>
       </c>
       <c r="F356" t="s">
         <v>931</v>
@@ -10307,7 +10307,7 @@
         <v>763</v>
       </c>
       <c r="D357">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="F357" t="s">
         <v>931</v>
@@ -10327,7 +10327,7 @@
         <v>764</v>
       </c>
       <c r="D358">
-        <v>892</v>
+        <v>831</v>
       </c>
       <c r="F358" t="s">
         <v>931</v>
@@ -10347,7 +10347,7 @@
         <v>764</v>
       </c>
       <c r="D359">
-        <v>892</v>
+        <v>831</v>
       </c>
       <c r="F359" t="s">
         <v>931</v>
@@ -10367,7 +10367,7 @@
         <v>765</v>
       </c>
       <c r="D360">
-        <v>830</v>
+        <v>520</v>
       </c>
       <c r="F360" t="s">
         <v>931</v>
@@ -10387,7 +10387,7 @@
         <v>765</v>
       </c>
       <c r="D361">
-        <v>830</v>
+        <v>520</v>
       </c>
       <c r="F361" t="s">
         <v>931</v>
@@ -10407,7 +10407,7 @@
         <v>765</v>
       </c>
       <c r="D362">
-        <v>830</v>
+        <v>520</v>
       </c>
       <c r="F362" t="s">
         <v>931</v>
@@ -10427,7 +10427,7 @@
         <v>766</v>
       </c>
       <c r="D363">
-        <v>794</v>
+        <v>945</v>
       </c>
       <c r="F363" t="s">
         <v>931</v>
@@ -10447,7 +10447,7 @@
         <v>766</v>
       </c>
       <c r="D364">
-        <v>794</v>
+        <v>945</v>
       </c>
       <c r="F364" t="s">
         <v>931</v>
@@ -10467,7 +10467,7 @@
         <v>767</v>
       </c>
       <c r="D365">
-        <v>999</v>
+        <v>605</v>
       </c>
       <c r="F365" t="s">
         <v>931</v>
@@ -10487,7 +10487,7 @@
         <v>768</v>
       </c>
       <c r="D366">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F366" t="s">
         <v>931</v>
@@ -10507,7 +10507,7 @@
         <v>768</v>
       </c>
       <c r="D367">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F367" t="s">
         <v>931</v>
@@ -10527,7 +10527,7 @@
         <v>768</v>
       </c>
       <c r="D368">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F368" t="s">
         <v>931</v>
@@ -10547,7 +10547,7 @@
         <v>769</v>
       </c>
       <c r="D369">
-        <v>663</v>
+        <v>551</v>
       </c>
       <c r="F369" t="s">
         <v>931</v>
@@ -10567,7 +10567,7 @@
         <v>769</v>
       </c>
       <c r="D370">
-        <v>663</v>
+        <v>551</v>
       </c>
       <c r="F370" t="s">
         <v>931</v>
@@ -10587,7 +10587,7 @@
         <v>770</v>
       </c>
       <c r="D371">
-        <v>986</v>
+        <v>880</v>
       </c>
       <c r="F371" t="s">
         <v>931</v>
@@ -10667,7 +10667,7 @@
         <v>772</v>
       </c>
       <c r="D375">
-        <v>841</v>
+        <v>750</v>
       </c>
       <c r="F375" t="s">
         <v>931</v>
@@ -10687,7 +10687,7 @@
         <v>772</v>
       </c>
       <c r="D376">
-        <v>841</v>
+        <v>750</v>
       </c>
       <c r="F376" t="s">
         <v>931</v>
@@ -10707,7 +10707,7 @@
         <v>773</v>
       </c>
       <c r="D377">
-        <v>956</v>
+        <v>851</v>
       </c>
       <c r="F377" t="s">
         <v>931</v>
@@ -10727,7 +10727,7 @@
         <v>773</v>
       </c>
       <c r="D378">
-        <v>956</v>
+        <v>851</v>
       </c>
       <c r="F378" t="s">
         <v>931</v>
@@ -10747,7 +10747,7 @@
         <v>773</v>
       </c>
       <c r="D379">
-        <v>956</v>
+        <v>851</v>
       </c>
       <c r="F379" t="s">
         <v>931</v>
@@ -10767,7 +10767,7 @@
         <v>774</v>
       </c>
       <c r="D380">
-        <v>742</v>
+        <v>879</v>
       </c>
       <c r="F380" t="s">
         <v>931</v>
@@ -10787,7 +10787,7 @@
         <v>774</v>
       </c>
       <c r="D381">
-        <v>742</v>
+        <v>879</v>
       </c>
       <c r="F381" t="s">
         <v>931</v>
@@ -10807,7 +10807,7 @@
         <v>775</v>
       </c>
       <c r="D382">
-        <v>624</v>
+        <v>970</v>
       </c>
       <c r="F382" t="s">
         <v>931</v>
@@ -10827,7 +10827,7 @@
         <v>775</v>
       </c>
       <c r="D383">
-        <v>624</v>
+        <v>970</v>
       </c>
       <c r="F383" t="s">
         <v>931</v>
@@ -10847,7 +10847,7 @@
         <v>775</v>
       </c>
       <c r="D384">
-        <v>624</v>
+        <v>970</v>
       </c>
       <c r="F384" t="s">
         <v>931</v>
@@ -10867,7 +10867,7 @@
         <v>776</v>
       </c>
       <c r="D385">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="F385" t="s">
         <v>931</v>
@@ -10887,7 +10887,7 @@
         <v>776</v>
       </c>
       <c r="D386">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="F386" t="s">
         <v>931</v>
@@ -10907,7 +10907,7 @@
         <v>777</v>
       </c>
       <c r="D387">
-        <v>940</v>
+        <v>579</v>
       </c>
       <c r="F387" t="s">
         <v>931</v>
@@ -10927,7 +10927,7 @@
         <v>777</v>
       </c>
       <c r="D388">
-        <v>940</v>
+        <v>579</v>
       </c>
       <c r="F388" t="s">
         <v>931</v>
@@ -10947,7 +10947,7 @@
         <v>777</v>
       </c>
       <c r="D389">
-        <v>940</v>
+        <v>579</v>
       </c>
       <c r="F389" t="s">
         <v>931</v>
@@ -10967,7 +10967,7 @@
         <v>778</v>
       </c>
       <c r="D390">
-        <v>652</v>
+        <v>959</v>
       </c>
       <c r="F390" t="s">
         <v>931</v>
@@ -10987,7 +10987,7 @@
         <v>778</v>
       </c>
       <c r="D391">
-        <v>652</v>
+        <v>959</v>
       </c>
       <c r="F391" t="s">
         <v>931</v>
@@ -11007,7 +11007,7 @@
         <v>778</v>
       </c>
       <c r="D392">
-        <v>652</v>
+        <v>959</v>
       </c>
       <c r="F392" t="s">
         <v>931</v>
@@ -11087,7 +11087,7 @@
         <v>780</v>
       </c>
       <c r="D396">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="F396" t="s">
         <v>931</v>
@@ -11107,7 +11107,7 @@
         <v>780</v>
       </c>
       <c r="D397">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="F397" t="s">
         <v>931</v>
@@ -11127,7 +11127,7 @@
         <v>780</v>
       </c>
       <c r="D398">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="F398" t="s">
         <v>931</v>
@@ -11147,7 +11147,7 @@
         <v>781</v>
       </c>
       <c r="D399">
-        <v>954</v>
+        <v>667</v>
       </c>
       <c r="F399" t="s">
         <v>931</v>
@@ -11167,7 +11167,7 @@
         <v>781</v>
       </c>
       <c r="D400">
-        <v>954</v>
+        <v>667</v>
       </c>
       <c r="F400" t="s">
         <v>931</v>
@@ -11247,7 +11247,7 @@
         <v>783</v>
       </c>
       <c r="D404">
-        <v>812</v>
+        <v>893</v>
       </c>
       <c r="F404" t="s">
         <v>931</v>
@@ -11267,7 +11267,7 @@
         <v>784</v>
       </c>
       <c r="D405">
-        <v>624</v>
+        <v>907</v>
       </c>
       <c r="F405" t="s">
         <v>931</v>
@@ -11287,7 +11287,7 @@
         <v>784</v>
       </c>
       <c r="D406">
-        <v>624</v>
+        <v>907</v>
       </c>
       <c r="F406" t="s">
         <v>931</v>
@@ -11307,7 +11307,7 @@
         <v>784</v>
       </c>
       <c r="D407">
-        <v>624</v>
+        <v>907</v>
       </c>
       <c r="F407" t="s">
         <v>931</v>
@@ -11327,7 +11327,7 @@
         <v>785</v>
       </c>
       <c r="D408">
-        <v>939</v>
+        <v>559</v>
       </c>
       <c r="F408" t="s">
         <v>931</v>
@@ -11347,7 +11347,7 @@
         <v>785</v>
       </c>
       <c r="D409">
-        <v>939</v>
+        <v>559</v>
       </c>
       <c r="F409" t="s">
         <v>931</v>
@@ -11367,7 +11367,7 @@
         <v>785</v>
       </c>
       <c r="D410">
-        <v>939</v>
+        <v>559</v>
       </c>
       <c r="F410" t="s">
         <v>931</v>
@@ -11387,7 +11387,7 @@
         <v>786</v>
       </c>
       <c r="D411">
-        <v>830</v>
+        <v>982</v>
       </c>
       <c r="F411" t="s">
         <v>931</v>
@@ -11407,7 +11407,7 @@
         <v>786</v>
       </c>
       <c r="D412">
-        <v>830</v>
+        <v>982</v>
       </c>
       <c r="F412" t="s">
         <v>931</v>
@@ -11427,7 +11427,7 @@
         <v>787</v>
       </c>
       <c r="D413">
-        <v>706</v>
+        <v>537</v>
       </c>
       <c r="F413" t="s">
         <v>931</v>
@@ -11447,7 +11447,7 @@
         <v>787</v>
       </c>
       <c r="D414">
-        <v>706</v>
+        <v>537</v>
       </c>
       <c r="F414" t="s">
         <v>931</v>
@@ -11527,7 +11527,7 @@
         <v>789</v>
       </c>
       <c r="D418">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="F418" t="s">
         <v>931</v>
@@ -11547,7 +11547,7 @@
         <v>790</v>
       </c>
       <c r="D419">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="F419" t="s">
         <v>931</v>
@@ -11567,7 +11567,7 @@
         <v>791</v>
       </c>
       <c r="D420">
-        <v>607</v>
+        <v>666</v>
       </c>
       <c r="F420" t="s">
         <v>931</v>
@@ -11587,7 +11587,7 @@
         <v>792</v>
       </c>
       <c r="D421">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="F421" t="s">
         <v>931</v>
@@ -11607,7 +11607,7 @@
         <v>793</v>
       </c>
       <c r="D422">
-        <v>817</v>
+        <v>907</v>
       </c>
       <c r="F422" t="s">
         <v>931</v>
@@ -11627,7 +11627,7 @@
         <v>793</v>
       </c>
       <c r="D423">
-        <v>817</v>
+        <v>907</v>
       </c>
       <c r="F423" t="s">
         <v>931</v>
@@ -11647,7 +11647,7 @@
         <v>793</v>
       </c>
       <c r="D424">
-        <v>817</v>
+        <v>907</v>
       </c>
       <c r="F424" t="s">
         <v>931</v>
@@ -11667,7 +11667,7 @@
         <v>794</v>
       </c>
       <c r="D425">
-        <v>781</v>
+        <v>534</v>
       </c>
       <c r="F425" t="s">
         <v>931</v>
@@ -11687,7 +11687,7 @@
         <v>795</v>
       </c>
       <c r="D426">
-        <v>860</v>
+        <v>958</v>
       </c>
       <c r="F426" t="s">
         <v>931</v>
@@ -11707,7 +11707,7 @@
         <v>796</v>
       </c>
       <c r="D427">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="F427" t="s">
         <v>931</v>
@@ -11727,7 +11727,7 @@
         <v>797</v>
       </c>
       <c r="D428">
-        <v>951</v>
+        <v>560</v>
       </c>
       <c r="F428" t="s">
         <v>931</v>
@@ -11747,7 +11747,7 @@
         <v>797</v>
       </c>
       <c r="D429">
-        <v>951</v>
+        <v>560</v>
       </c>
       <c r="F429" t="s">
         <v>931</v>
@@ -11827,7 +11827,7 @@
         <v>799</v>
       </c>
       <c r="D433">
-        <v>791</v>
+        <v>596</v>
       </c>
       <c r="F433" t="s">
         <v>931</v>
@@ -11847,7 +11847,7 @@
         <v>799</v>
       </c>
       <c r="D434">
-        <v>791</v>
+        <v>596</v>
       </c>
       <c r="F434" t="s">
         <v>931</v>
@@ -11867,7 +11867,7 @@
         <v>799</v>
       </c>
       <c r="D435">
-        <v>791</v>
+        <v>596</v>
       </c>
       <c r="F435" t="s">
         <v>931</v>
@@ -11887,7 +11887,7 @@
         <v>800</v>
       </c>
       <c r="D436">
-        <v>958</v>
+        <v>800</v>
       </c>
       <c r="F436" t="s">
         <v>931</v>
@@ -11907,7 +11907,7 @@
         <v>800</v>
       </c>
       <c r="D437">
-        <v>958</v>
+        <v>800</v>
       </c>
       <c r="F437" t="s">
         <v>931</v>
@@ -11927,7 +11927,7 @@
         <v>801</v>
       </c>
       <c r="D438">
-        <v>958</v>
+        <v>617</v>
       </c>
       <c r="F438" t="s">
         <v>931</v>
@@ -11947,7 +11947,7 @@
         <v>801</v>
       </c>
       <c r="D439">
-        <v>958</v>
+        <v>617</v>
       </c>
       <c r="F439" t="s">
         <v>931</v>
@@ -11967,7 +11967,7 @@
         <v>802</v>
       </c>
       <c r="D440">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="F440" t="s">
         <v>931</v>
@@ -11987,7 +11987,7 @@
         <v>802</v>
       </c>
       <c r="D441">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="F441" t="s">
         <v>931</v>
@@ -12087,7 +12087,7 @@
         <v>805</v>
       </c>
       <c r="D446">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="F446" t="s">
         <v>931</v>
@@ -12107,7 +12107,7 @@
         <v>806</v>
       </c>
       <c r="D447">
-        <v>774</v>
+        <v>906</v>
       </c>
       <c r="F447" t="s">
         <v>931</v>
@@ -12127,7 +12127,7 @@
         <v>806</v>
       </c>
       <c r="D448">
-        <v>774</v>
+        <v>906</v>
       </c>
       <c r="F448" t="s">
         <v>931</v>
@@ -12147,7 +12147,7 @@
         <v>807</v>
       </c>
       <c r="D449">
-        <v>540</v>
+        <v>682</v>
       </c>
       <c r="F449" t="s">
         <v>931</v>
@@ -12167,7 +12167,7 @@
         <v>807</v>
       </c>
       <c r="D450">
-        <v>540</v>
+        <v>682</v>
       </c>
       <c r="F450" t="s">
         <v>931</v>
@@ -12187,7 +12187,7 @@
         <v>808</v>
       </c>
       <c r="D451">
-        <v>556</v>
+        <v>997</v>
       </c>
       <c r="F451" t="s">
         <v>931</v>
@@ -12207,7 +12207,7 @@
         <v>808</v>
       </c>
       <c r="D452">
-        <v>556</v>
+        <v>997</v>
       </c>
       <c r="F452" t="s">
         <v>931</v>
@@ -12227,7 +12227,7 @@
         <v>809</v>
       </c>
       <c r="D453">
-        <v>872</v>
+        <v>539</v>
       </c>
       <c r="F453" t="s">
         <v>931</v>
@@ -12247,7 +12247,7 @@
         <v>810</v>
       </c>
       <c r="D454">
-        <v>646</v>
+        <v>784</v>
       </c>
       <c r="F454" t="s">
         <v>931</v>
@@ -12267,7 +12267,7 @@
         <v>811</v>
       </c>
       <c r="D455">
-        <v>963</v>
+        <v>924</v>
       </c>
       <c r="F455" t="s">
         <v>931</v>
@@ -12287,7 +12287,7 @@
         <v>812</v>
       </c>
       <c r="D456">
-        <v>626</v>
+        <v>885</v>
       </c>
       <c r="F456" t="s">
         <v>931</v>
@@ -12307,7 +12307,7 @@
         <v>813</v>
       </c>
       <c r="D457">
-        <v>618</v>
+        <v>961</v>
       </c>
       <c r="F457" t="s">
         <v>931</v>
@@ -12407,7 +12407,7 @@
         <v>818</v>
       </c>
       <c r="D462">
-        <v>818</v>
+        <v>537</v>
       </c>
       <c r="F462" t="s">
         <v>931</v>
@@ -12427,7 +12427,7 @@
         <v>819</v>
       </c>
       <c r="D463">
-        <v>584</v>
+        <v>513</v>
       </c>
       <c r="F463" t="s">
         <v>931</v>
@@ -12447,7 +12447,7 @@
         <v>820</v>
       </c>
       <c r="D464">
-        <v>920</v>
+        <v>684</v>
       </c>
       <c r="F464" t="s">
         <v>931</v>
@@ -12467,7 +12467,7 @@
         <v>821</v>
       </c>
       <c r="D465">
-        <v>850</v>
+        <v>914</v>
       </c>
       <c r="F465" t="s">
         <v>931</v>
@@ -12487,7 +12487,7 @@
         <v>822</v>
       </c>
       <c r="D466">
-        <v>681</v>
+        <v>837</v>
       </c>
       <c r="F466" t="s">
         <v>931</v>
@@ -12507,7 +12507,7 @@
         <v>823</v>
       </c>
       <c r="D467">
-        <v>786</v>
+        <v>923</v>
       </c>
       <c r="F467" t="s">
         <v>931</v>
@@ -12527,7 +12527,7 @@
         <v>824</v>
       </c>
       <c r="D468">
-        <v>970</v>
+        <v>690</v>
       </c>
       <c r="F468" t="s">
         <v>931</v>
@@ -12547,7 +12547,7 @@
         <v>825</v>
       </c>
       <c r="D469">
-        <v>590</v>
+        <v>790</v>
       </c>
       <c r="F469" t="s">
         <v>931</v>
@@ -12567,7 +12567,7 @@
         <v>826</v>
       </c>
       <c r="D470">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F470" t="s">
         <v>931</v>
@@ -12587,7 +12587,7 @@
         <v>826</v>
       </c>
       <c r="D471">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F471" t="s">
         <v>931</v>
@@ -12607,7 +12607,7 @@
         <v>826</v>
       </c>
       <c r="D472">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F472" t="s">
         <v>931</v>
@@ -12627,7 +12627,7 @@
         <v>826</v>
       </c>
       <c r="D473">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F473" t="s">
         <v>931</v>
@@ -12647,7 +12647,7 @@
         <v>827</v>
       </c>
       <c r="D474">
-        <v>779</v>
+        <v>832</v>
       </c>
       <c r="F474" t="s">
         <v>931</v>
@@ -12667,7 +12667,7 @@
         <v>827</v>
       </c>
       <c r="D475">
-        <v>779</v>
+        <v>832</v>
       </c>
       <c r="F475" t="s">
         <v>931</v>
@@ -12687,7 +12687,7 @@
         <v>828</v>
       </c>
       <c r="D476">
-        <v>923</v>
+        <v>866</v>
       </c>
       <c r="F476" t="s">
         <v>931</v>
@@ -12707,7 +12707,7 @@
         <v>829</v>
       </c>
       <c r="D477">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F477" t="s">
         <v>931</v>
@@ -12727,7 +12727,7 @@
         <v>829</v>
       </c>
       <c r="D478">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F478" t="s">
         <v>931</v>
@@ -12747,7 +12747,7 @@
         <v>830</v>
       </c>
       <c r="D479">
-        <v>864</v>
+        <v>656</v>
       </c>
       <c r="F479" t="s">
         <v>931</v>
@@ -12767,7 +12767,7 @@
         <v>830</v>
       </c>
       <c r="D480">
-        <v>864</v>
+        <v>656</v>
       </c>
       <c r="F480" t="s">
         <v>931</v>
@@ -12787,7 +12787,7 @@
         <v>830</v>
       </c>
       <c r="D481">
-        <v>864</v>
+        <v>656</v>
       </c>
       <c r="F481" t="s">
         <v>931</v>
@@ -12807,7 +12807,7 @@
         <v>830</v>
       </c>
       <c r="D482">
-        <v>864</v>
+        <v>656</v>
       </c>
       <c r="F482" t="s">
         <v>931</v>
@@ -12827,7 +12827,7 @@
         <v>831</v>
       </c>
       <c r="D483">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="F483" t="s">
         <v>931</v>
@@ -12847,7 +12847,7 @@
         <v>831</v>
       </c>
       <c r="D484">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="F484" t="s">
         <v>931</v>
@@ -12867,7 +12867,7 @@
         <v>831</v>
       </c>
       <c r="D485">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="F485" t="s">
         <v>931</v>
@@ -12887,7 +12887,7 @@
         <v>831</v>
       </c>
       <c r="D486">
-        <v>533</v>
+        <v>622</v>
       </c>
       <c r="F486" t="s">
         <v>931</v>
@@ -12907,7 +12907,7 @@
         <v>832</v>
       </c>
       <c r="D487">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F487" t="s">
         <v>931</v>
@@ -12927,7 +12927,7 @@
         <v>832</v>
       </c>
       <c r="D488">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F488" t="s">
         <v>931</v>
@@ -12947,7 +12947,7 @@
         <v>832</v>
       </c>
       <c r="D489">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F489" t="s">
         <v>931</v>
@@ -12967,7 +12967,7 @@
         <v>832</v>
       </c>
       <c r="D490">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F490" t="s">
         <v>931</v>
@@ -12987,7 +12987,7 @@
         <v>833</v>
       </c>
       <c r="D491">
-        <v>543</v>
+        <v>869</v>
       </c>
       <c r="F491" t="s">
         <v>931</v>
@@ -13007,7 +13007,7 @@
         <v>833</v>
       </c>
       <c r="D492">
-        <v>543</v>
+        <v>869</v>
       </c>
       <c r="F492" t="s">
         <v>931</v>
@@ -13027,7 +13027,7 @@
         <v>833</v>
       </c>
       <c r="D493">
-        <v>543</v>
+        <v>869</v>
       </c>
       <c r="F493" t="s">
         <v>931</v>
@@ -13047,7 +13047,7 @@
         <v>833</v>
       </c>
       <c r="D494">
-        <v>543</v>
+        <v>869</v>
       </c>
       <c r="F494" t="s">
         <v>931</v>
@@ -13067,7 +13067,7 @@
         <v>834</v>
       </c>
       <c r="D495">
-        <v>740</v>
+        <v>845</v>
       </c>
       <c r="F495" t="s">
         <v>931</v>
@@ -13087,7 +13087,7 @@
         <v>834</v>
       </c>
       <c r="D496">
-        <v>740</v>
+        <v>845</v>
       </c>
       <c r="F496" t="s">
         <v>931</v>
@@ -13107,7 +13107,7 @@
         <v>834</v>
       </c>
       <c r="D497">
-        <v>740</v>
+        <v>845</v>
       </c>
       <c r="F497" t="s">
         <v>931</v>
@@ -13127,7 +13127,7 @@
         <v>835</v>
       </c>
       <c r="D498">
-        <v>670</v>
+        <v>998</v>
       </c>
       <c r="F498" t="s">
         <v>931</v>
@@ -13147,7 +13147,7 @@
         <v>835</v>
       </c>
       <c r="D499">
-        <v>670</v>
+        <v>998</v>
       </c>
       <c r="F499" t="s">
         <v>931</v>
@@ -13167,7 +13167,7 @@
         <v>835</v>
       </c>
       <c r="D500">
-        <v>670</v>
+        <v>998</v>
       </c>
       <c r="F500" t="s">
         <v>931</v>
@@ -13187,7 +13187,7 @@
         <v>835</v>
       </c>
       <c r="D501">
-        <v>670</v>
+        <v>998</v>
       </c>
       <c r="F501" t="s">
         <v>931</v>
@@ -13207,7 +13207,7 @@
         <v>836</v>
       </c>
       <c r="D502">
-        <v>534</v>
+        <v>964</v>
       </c>
       <c r="F502" t="s">
         <v>931</v>
@@ -13227,7 +13227,7 @@
         <v>836</v>
       </c>
       <c r="D503">
-        <v>534</v>
+        <v>964</v>
       </c>
       <c r="F503" t="s">
         <v>931</v>
@@ -13247,7 +13247,7 @@
         <v>836</v>
       </c>
       <c r="D504">
-        <v>534</v>
+        <v>964</v>
       </c>
       <c r="F504" t="s">
         <v>931</v>
@@ -13267,7 +13267,7 @@
         <v>837</v>
       </c>
       <c r="D505">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="F505" t="s">
         <v>931</v>
@@ -13287,7 +13287,7 @@
         <v>837</v>
       </c>
       <c r="D506">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="F506" t="s">
         <v>931</v>
@@ -13307,7 +13307,7 @@
         <v>838</v>
       </c>
       <c r="D507">
-        <v>819</v>
+        <v>995</v>
       </c>
       <c r="F507" t="s">
         <v>931</v>
@@ -13327,7 +13327,7 @@
         <v>838</v>
       </c>
       <c r="D508">
-        <v>819</v>
+        <v>995</v>
       </c>
       <c r="F508" t="s">
         <v>931</v>
@@ -13347,7 +13347,7 @@
         <v>838</v>
       </c>
       <c r="D509">
-        <v>819</v>
+        <v>995</v>
       </c>
       <c r="F509" t="s">
         <v>931</v>
@@ -13367,7 +13367,7 @@
         <v>838</v>
       </c>
       <c r="D510">
-        <v>819</v>
+        <v>995</v>
       </c>
       <c r="F510" t="s">
         <v>931</v>
@@ -13387,7 +13387,7 @@
         <v>839</v>
       </c>
       <c r="D511">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="F511" t="s">
         <v>931</v>
@@ -13407,7 +13407,7 @@
         <v>840</v>
       </c>
       <c r="D512">
-        <v>673</v>
+        <v>776</v>
       </c>
       <c r="F512" t="s">
         <v>931</v>
@@ -13427,7 +13427,7 @@
         <v>841</v>
       </c>
       <c r="D513">
-        <v>687</v>
+        <v>901</v>
       </c>
       <c r="F513" t="s">
         <v>931</v>
@@ -13447,7 +13447,7 @@
         <v>842</v>
       </c>
       <c r="D514">
-        <v>802</v>
+        <v>547</v>
       </c>
       <c r="F514" t="s">
         <v>931</v>
@@ -13467,7 +13467,7 @@
         <v>843</v>
       </c>
       <c r="D515">
-        <v>737</v>
+        <v>664</v>
       </c>
       <c r="F515" t="s">
         <v>931</v>
@@ -13487,7 +13487,7 @@
         <v>844</v>
       </c>
       <c r="D516">
-        <v>737</v>
+        <v>970</v>
       </c>
       <c r="F516" t="s">
         <v>931</v>
@@ -13547,7 +13547,7 @@
         <v>847</v>
       </c>
       <c r="D519">
-        <v>944</v>
+        <v>887</v>
       </c>
       <c r="F519" t="s">
         <v>931</v>
@@ -13567,7 +13567,7 @@
         <v>848</v>
       </c>
       <c r="D520">
-        <v>741</v>
+        <v>894</v>
       </c>
       <c r="F520" t="s">
         <v>931</v>
@@ -13587,7 +13587,7 @@
         <v>849</v>
       </c>
       <c r="D521">
-        <v>904</v>
+        <v>594</v>
       </c>
       <c r="F521" t="s">
         <v>931</v>
@@ -13607,7 +13607,7 @@
         <v>850</v>
       </c>
       <c r="D522">
-        <v>942</v>
+        <v>734</v>
       </c>
       <c r="F522" t="s">
         <v>931</v>
@@ -13627,7 +13627,7 @@
         <v>851</v>
       </c>
       <c r="D523">
-        <v>977</v>
+        <v>539</v>
       </c>
       <c r="F523" t="s">
         <v>931</v>
@@ -13647,7 +13647,7 @@
         <v>852</v>
       </c>
       <c r="D524">
-        <v>713</v>
+        <v>982</v>
       </c>
       <c r="F524" t="s">
         <v>931</v>
@@ -13687,7 +13687,7 @@
         <v>854</v>
       </c>
       <c r="D526">
-        <v>742</v>
+        <v>576</v>
       </c>
       <c r="F526" t="s">
         <v>931</v>
@@ -13727,7 +13727,7 @@
         <v>856</v>
       </c>
       <c r="D528">
-        <v>569</v>
+        <v>846</v>
       </c>
       <c r="F528" t="s">
         <v>931</v>
@@ -13747,7 +13747,7 @@
         <v>857</v>
       </c>
       <c r="D529">
-        <v>937</v>
+        <v>508</v>
       </c>
       <c r="F529" t="s">
         <v>931</v>
@@ -13767,7 +13767,7 @@
         <v>858</v>
       </c>
       <c r="D530">
-        <v>936</v>
+        <v>839</v>
       </c>
       <c r="F530" t="s">
         <v>931</v>
@@ -13787,7 +13787,7 @@
         <v>859</v>
       </c>
       <c r="D531">
-        <v>839</v>
+        <v>636</v>
       </c>
       <c r="F531" t="s">
         <v>931</v>
@@ -13807,7 +13807,7 @@
         <v>860</v>
       </c>
       <c r="D532">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="F532" t="s">
         <v>931</v>
@@ -13827,7 +13827,7 @@
         <v>861</v>
       </c>
       <c r="D533">
-        <v>615</v>
+        <v>817</v>
       </c>
       <c r="F533" t="s">
         <v>931</v>
@@ -13847,7 +13847,7 @@
         <v>862</v>
       </c>
       <c r="D534">
-        <v>731</v>
+        <v>541</v>
       </c>
       <c r="F534" t="s">
         <v>931</v>
@@ -13867,7 +13867,7 @@
         <v>863</v>
       </c>
       <c r="D535">
-        <v>825</v>
+        <v>950</v>
       </c>
       <c r="F535" t="s">
         <v>931</v>
@@ -13907,7 +13907,7 @@
         <v>865</v>
       </c>
       <c r="D537">
-        <v>976</v>
+        <v>806</v>
       </c>
       <c r="F537" t="s">
         <v>931</v>
@@ -13927,7 +13927,7 @@
         <v>866</v>
       </c>
       <c r="D538">
-        <v>594</v>
+        <v>975</v>
       </c>
       <c r="F538" t="s">
         <v>931</v>
@@ -13947,7 +13947,7 @@
         <v>867</v>
       </c>
       <c r="D539">
-        <v>761</v>
+        <v>918</v>
       </c>
       <c r="F539" t="s">
         <v>931</v>
@@ -13967,7 +13967,7 @@
         <v>868</v>
       </c>
       <c r="D540">
-        <v>588</v>
+        <v>796</v>
       </c>
       <c r="F540" t="s">
         <v>931</v>
@@ -13987,7 +13987,7 @@
         <v>869</v>
       </c>
       <c r="D541">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="F541" t="s">
         <v>931</v>
@@ -14007,7 +14007,7 @@
         <v>870</v>
       </c>
       <c r="D542">
-        <v>875</v>
+        <v>769</v>
       </c>
       <c r="F542" t="s">
         <v>931</v>
@@ -14047,7 +14047,7 @@
         <v>872</v>
       </c>
       <c r="D544">
-        <v>882</v>
+        <v>717</v>
       </c>
       <c r="F544" t="s">
         <v>931</v>
@@ -14067,7 +14067,7 @@
         <v>873</v>
       </c>
       <c r="D545">
-        <v>959</v>
+        <v>832</v>
       </c>
       <c r="F545" t="s">
         <v>931</v>
@@ -14087,7 +14087,7 @@
         <v>874</v>
       </c>
       <c r="D546">
-        <v>905</v>
+        <v>798</v>
       </c>
       <c r="F546" t="s">
         <v>931</v>
@@ -14107,7 +14107,7 @@
         <v>875</v>
       </c>
       <c r="D547">
-        <v>806</v>
+        <v>621</v>
       </c>
       <c r="F547" t="s">
         <v>931</v>
@@ -14127,7 +14127,7 @@
         <v>876</v>
       </c>
       <c r="D548">
-        <v>874</v>
+        <v>971</v>
       </c>
       <c r="F548" t="s">
         <v>931</v>
@@ -14147,7 +14147,7 @@
         <v>877</v>
       </c>
       <c r="D549">
-        <v>662</v>
+        <v>810</v>
       </c>
       <c r="F549" t="s">
         <v>931</v>
@@ -14167,7 +14167,7 @@
         <v>878</v>
       </c>
       <c r="D550">
-        <v>651</v>
+        <v>930</v>
       </c>
       <c r="F550" t="s">
         <v>931</v>
@@ -14187,7 +14187,7 @@
         <v>879</v>
       </c>
       <c r="D551">
-        <v>959</v>
+        <v>635</v>
       </c>
       <c r="F551" t="s">
         <v>931</v>
@@ -14207,7 +14207,7 @@
         <v>880</v>
       </c>
       <c r="D552">
-        <v>807</v>
+        <v>508</v>
       </c>
       <c r="F552" t="s">
         <v>931</v>
@@ -14227,7 +14227,7 @@
         <v>881</v>
       </c>
       <c r="D553">
-        <v>864</v>
+        <v>991</v>
       </c>
       <c r="F553" t="s">
         <v>931</v>
@@ -14247,7 +14247,7 @@
         <v>882</v>
       </c>
       <c r="D554">
-        <v>695</v>
+        <v>783</v>
       </c>
       <c r="F554" t="s">
         <v>931</v>
@@ -14267,7 +14267,7 @@
         <v>883</v>
       </c>
       <c r="D555">
-        <v>736</v>
+        <v>503</v>
       </c>
       <c r="F555" t="s">
         <v>931</v>
@@ -14287,7 +14287,7 @@
         <v>884</v>
       </c>
       <c r="D556">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="F556" t="s">
         <v>931</v>
@@ -14307,7 +14307,7 @@
         <v>885</v>
       </c>
       <c r="D557">
-        <v>865</v>
+        <v>958</v>
       </c>
       <c r="F557" t="s">
         <v>931</v>
@@ -14327,7 +14327,7 @@
         <v>886</v>
       </c>
       <c r="D558">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="F558" t="s">
         <v>931</v>
@@ -14347,7 +14347,7 @@
         <v>887</v>
       </c>
       <c r="D559">
-        <v>783</v>
+        <v>901</v>
       </c>
       <c r="F559" t="s">
         <v>931</v>
@@ -14387,7 +14387,7 @@
         <v>889</v>
       </c>
       <c r="D561">
-        <v>979</v>
+        <v>502</v>
       </c>
       <c r="F561" t="s">
         <v>931</v>
@@ -14407,7 +14407,7 @@
         <v>890</v>
       </c>
       <c r="D562">
-        <v>611</v>
+        <v>807</v>
       </c>
       <c r="F562" t="s">
         <v>931</v>
@@ -14427,7 +14427,7 @@
         <v>891</v>
       </c>
       <c r="D563">
-        <v>832</v>
+        <v>522</v>
       </c>
       <c r="F563" t="s">
         <v>931</v>
@@ -14447,7 +14447,7 @@
         <v>892</v>
       </c>
       <c r="D564">
-        <v>960</v>
+        <v>663</v>
       </c>
       <c r="F564" t="s">
         <v>931</v>
@@ -14467,7 +14467,7 @@
         <v>893</v>
       </c>
       <c r="D565">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="F565" t="s">
         <v>931</v>
@@ -14487,7 +14487,7 @@
         <v>894</v>
       </c>
       <c r="D566">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F566" t="s">
         <v>931</v>
@@ -14507,7 +14507,7 @@
         <v>895</v>
       </c>
       <c r="D567">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="F567" t="s">
         <v>931</v>
@@ -14527,7 +14527,7 @@
         <v>896</v>
       </c>
       <c r="D568">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="F568" t="s">
         <v>931</v>
@@ -14547,7 +14547,7 @@
         <v>897</v>
       </c>
       <c r="D569">
-        <v>950</v>
+        <v>881</v>
       </c>
       <c r="F569" t="s">
         <v>931</v>
@@ -14567,7 +14567,7 @@
         <v>898</v>
       </c>
       <c r="D570">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F570" t="s">
         <v>931</v>
@@ -14627,7 +14627,7 @@
         <v>901</v>
       </c>
       <c r="D573">
-        <v>747</v>
+        <v>710</v>
       </c>
       <c r="F573" t="s">
         <v>931</v>
@@ -14647,7 +14647,7 @@
         <v>902</v>
       </c>
       <c r="D574">
-        <v>567</v>
+        <v>748</v>
       </c>
       <c r="F574" t="s">
         <v>931</v>
@@ -14667,7 +14667,7 @@
         <v>903</v>
       </c>
       <c r="D575">
-        <v>966</v>
+        <v>754</v>
       </c>
       <c r="F575" t="s">
         <v>931</v>
@@ -14687,7 +14687,7 @@
         <v>904</v>
       </c>
       <c r="D576">
-        <v>671</v>
+        <v>893</v>
       </c>
       <c r="F576" t="s">
         <v>931</v>
@@ -14707,7 +14707,7 @@
         <v>905</v>
       </c>
       <c r="D577">
-        <v>842</v>
+        <v>538</v>
       </c>
       <c r="F577" t="s">
         <v>931</v>
@@ -14967,7 +14967,7 @@
         <v>914</v>
       </c>
       <c r="D590">
-        <v>854</v>
+        <v>592</v>
       </c>
       <c r="F590" t="s">
         <v>931</v>
@@ -14987,7 +14987,7 @@
         <v>915</v>
       </c>
       <c r="D591">
-        <v>714</v>
+        <v>857</v>
       </c>
       <c r="F591" t="s">
         <v>931</v>
@@ -15007,7 +15007,7 @@
         <v>916</v>
       </c>
       <c r="D592">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F592" t="s">
         <v>931</v>
@@ -15027,7 +15027,7 @@
         <v>917</v>
       </c>
       <c r="D593">
-        <v>927</v>
+        <v>872</v>
       </c>
       <c r="F593" t="s">
         <v>931</v>
@@ -15047,7 +15047,7 @@
         <v>918</v>
       </c>
       <c r="D594">
-        <v>620</v>
+        <v>744</v>
       </c>
       <c r="F594" t="s">
         <v>931</v>
@@ -15067,7 +15067,7 @@
         <v>919</v>
       </c>
       <c r="D595">
-        <v>544</v>
+        <v>721</v>
       </c>
       <c r="F595" t="s">
         <v>931</v>
@@ -15087,7 +15087,7 @@
         <v>920</v>
       </c>
       <c r="D596">
-        <v>807</v>
+        <v>908</v>
       </c>
       <c r="F596" t="s">
         <v>931</v>
@@ -15107,7 +15107,7 @@
         <v>921</v>
       </c>
       <c r="D597">
-        <v>607</v>
+        <v>637</v>
       </c>
       <c r="F597" t="s">
         <v>931</v>
@@ -15127,7 +15127,7 @@
         <v>922</v>
       </c>
       <c r="D598">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="F598" t="s">
         <v>931</v>
@@ -15147,7 +15147,7 @@
         <v>923</v>
       </c>
       <c r="D599">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="F599" t="s">
         <v>931</v>
@@ -15167,7 +15167,7 @@
         <v>924</v>
       </c>
       <c r="D600">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="F600" t="s">
         <v>931</v>
@@ -15187,7 +15187,7 @@
         <v>925</v>
       </c>
       <c r="D601">
-        <v>641</v>
+        <v>808</v>
       </c>
       <c r="F601" t="s">
         <v>931</v>
@@ -15207,7 +15207,7 @@
         <v>926</v>
       </c>
       <c r="D602">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="F602" t="s">
         <v>931</v>
@@ -15227,7 +15227,7 @@
         <v>927</v>
       </c>
       <c r="D603">
-        <v>911</v>
+        <v>777</v>
       </c>
       <c r="F603" t="s">
         <v>931</v>
@@ -15247,7 +15247,7 @@
         <v>928</v>
       </c>
       <c r="D604">
-        <v>710</v>
+        <v>779</v>
       </c>
       <c r="F604" t="s">
         <v>931</v>
@@ -15267,7 +15267,7 @@
         <v>929</v>
       </c>
       <c r="D605">
-        <v>890</v>
+        <v>644</v>
       </c>
       <c r="F605" t="s">
         <v>931</v>
@@ -15287,7 +15287,7 @@
         <v>930</v>
       </c>
       <c r="D606">
-        <v>942</v>
+        <v>645</v>
       </c>
       <c r="F606" t="s">
         <v>931</v>
